--- a/Output_Efficient_Frontier/optimal_portfolio_stats.xlsx
+++ b/Output_Efficient_Frontier/optimal_portfolio_stats.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1653174895613667</v>
+        <v>0.1653174727191271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1481141566579912</v>
+        <v>0.1481141548693799</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9811181648012066</v>
+        <v>0.9811180629378795</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08477185325816251</v>
+        <v>0.08477185635818021</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Efficient_Frontier/optimal_portfolio_stats.xlsx
+++ b/Output_Efficient_Frontier/optimal_portfolio_stats.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1653174727191271</v>
+        <v>0.1587786280061485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1481141548693799</v>
+        <v>0.1383239241546789</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9811180629378795</v>
+        <v>1.003287239385727</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08477185635818021</v>
+        <v>0.08386811858590329</v>
       </c>
     </row>
   </sheetData>
